--- a/prep_and_checklists/Marie Crouch Matthew Rial Welcome Drinks  /PREPLIST_Marie Crouch Matthew Rial Welcome Drinks  _08-05-2025_0.xlsx
+++ b/prep_and_checklists/Marie Crouch Matthew Rial Welcome Drinks  /PREPLIST_Marie Crouch Matthew Rial Welcome Drinks  _08-05-2025_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Marie Crouch Matthew Rial Welcome Drinks  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2020F878-3C92-CB4D-A867-0A0F68BE22F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2C427A-2206-EB4D-8EE1-F63F0C5FADC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="127">
   <si>
     <t xml:space="preserve">Marie Crouch Matthew Rial Welcome Drinks  , Guests: 177   , 7:00 PM - 9:00 PM   ,Friday, August 22, 2025  </t>
   </si>
@@ -352,18 +352,12 @@
 </t>
   </si>
   <si>
-    <t>200 pcs</t>
-  </si>
-  <si>
     <t>4 lbs</t>
   </si>
   <si>
     <t>2x recipe</t>
   </si>
   <si>
-    <t>100 pcs, fried and split in half</t>
-  </si>
-  <si>
     <t>1 x squeeze bottle</t>
   </si>
   <si>
@@ -385,9 +379,6 @@
     <t>1x 200g tin</t>
   </si>
   <si>
-    <t>20 pcs, cut into 8</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -407,6 +398,24 @@
   </si>
   <si>
     <t>2 cups, * Pull from reach-in freezer</t>
+  </si>
+  <si>
+    <t>220 pcs</t>
+  </si>
+  <si>
+    <t>250 pcs</t>
+  </si>
+  <si>
+    <t>125 pcs, fried and split in half</t>
+  </si>
+  <si>
+    <t>30 pcs, cut into 8</t>
+  </si>
+  <si>
+    <t>3x recipe, * See AM Prep</t>
+  </si>
+  <si>
+    <t>3x loaves, * See AM Prep</t>
   </si>
 </sst>
 </file>
@@ -854,10 +863,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -901,7 +913,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -909,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -917,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -933,7 +945,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -941,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -949,7 +961,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -957,7 +969,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -965,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -973,7 +985,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -989,7 +1001,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -997,7 +1009,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1005,7 +1017,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1013,7 +1025,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -1029,7 +1041,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1037,7 +1049,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1045,7 +1057,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1053,7 +1065,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1061,7 +1073,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -1077,7 +1089,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1085,7 +1097,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1093,7 +1105,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1101,7 +1113,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1109,7 +1121,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -1125,7 +1137,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1133,7 +1145,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1141,7 +1153,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1149,7 +1161,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1157,7 +1169,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -1173,7 +1185,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1181,7 +1193,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1189,7 +1201,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1197,7 +1209,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1205,7 +1217,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1213,7 +1225,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1234,7 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="66" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1662,5 +1674,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>